--- a/results/test9.adjetivos_enmascarados_positivos.xlsx
+++ b/results/test9.adjetivos_enmascarados_positivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,6 +3322,2853 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>103</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.720241097151302e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.14873627569068e-08</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>adecuado</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>adecuada</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>105</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.94031076716783e-06</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.947350357222604e-07</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>107</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.789937087437465e-08</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.101775363807292e-09</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>108</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.270866434310847e-08</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.469893646799392e-07</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>110</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.150551292601222e-09</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.208875082843065e-09</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>atento</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>atenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>112</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.564995823689969e-08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.566057374537195e-08</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>113</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01120429486036301</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9.767303481567069e-07</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>bueno</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>buena</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>115</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.66837388255226e-07</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.826200665775104e-07</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>116</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.590827700212685e-07</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.677996680082288e-07</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>118</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.667780555995705e-07</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.965648754875815e-09</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>120</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0001917389308800921</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.90213034001863e-09</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>decidido</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>decidida</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>121</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.681724448587829e-08</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.229095183054369e-10</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>delicioso</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>deliciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>125</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.012387067741656e-07</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.434425306953926e-07</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>126</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.88390134276051e-07</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8.740278190089157e-07</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>127</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6.886812684570032e-07</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8.463334033592673e-09</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>encantador</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>encantadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>128</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.009266791309528e-08</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8.53662925237586e-07</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>129</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.845104748099402e-06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8.869877055062148e-11</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>estupendo</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>estupenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>130</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.048410802617639e-09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.403927729626275e-08</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>131</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.33002879820765e-08</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.395735414026603e-09</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>extraordinario</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>extraordinaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>132</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9.919303156635806e-10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.873531160385028e-08</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>fantástico</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>fantástica</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>133</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.703209720626546e-08</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.105103812435118e-08</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>134</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.020601369030373e-08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.47444893627835e-06</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>135</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.115664738601481e-07</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.79485004991875e-06</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>136</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.462602065468673e-06</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.963281076517887e-05</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>137</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.592319150480527e-11</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8.011891150516703e-11</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>138</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.271460625204782e-07</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.241322043048058e-08</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>hermoso</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>hermosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>140</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.540658172733856e-08</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.600618017822853e-06</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>142</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.564089408631844e-07</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6.509515060315607e-06</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>143</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.388693021908693e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.57428967213491e-05</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>144</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.17471897485666e-05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.480959532784709e-08</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>justo</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>justa</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>145</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.067955723854652e-09</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.67244890451002e-08</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>146</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.683166175325823e-07</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.635512311779166e-07</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>147</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.130406820543556e-10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.952780325278127e-09</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>lógico</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>lógica</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>148</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.973156713575008e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.213598276374796e-10</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>maravilloso</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>maravillosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>149</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.505430410972622e-07</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.93494900663427e-07</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>150</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.505140858171217e-06</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.009618828770272e-09</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>objetivo</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>objetiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>151</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5.186836347093049e-07</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.417126185287998e-07</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>152</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.092616796289803e-06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.509422225571711e-09</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ordenado</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>ordenada</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>153</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0001272613008040935</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.398342360265815e-07</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>154</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.181600792163014e-12</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.539272390787329e-12</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>orgulloso</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>orgullosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>155</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.197353848349849e-08</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.835288892555354e-09</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>orientado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>orientada</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>156</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.370660651645039e-08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.760681265343237e-09</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>157</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.032340268298682e-10</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.039094472917952e-11</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>pacífico</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>pacífica</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>158</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.636860017446452e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.422217862540492e-08</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>159</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.907850780000445e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.031235055710567e-07</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>preparado</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>preparada</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>160</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.923106760339579e-06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.055594888223823e-08</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>productivo</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>productiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>161</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.722253154592181e-07</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.642214556151771e-12</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>protector</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>protectora</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>162</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.661718984635741e-09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.080915884050683e-09</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>163</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.043415214814104e-09</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.092965610880128e-08</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>164</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.458533294140807e-10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.582213494896408e-11</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>rápido</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>rápida</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>165</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.293724368333642e-07</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.032764771480288e-06</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>167</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.542177763269592e-08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.102614236169757e-08</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>168</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.043236466102826e-07</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.975103259610478e-06</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>sabio</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>sabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>169</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0004256671527400613</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.234728756571712e-06</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>seguro</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>segura</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>173</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.003255185125454e-07</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.939170506977007e-08</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>tranquilo</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>tranquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>174</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.078089978401309e-10</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.343846532999351e-09</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>único</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>única</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>175</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.042355670312418e-10</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.206676619209702e-09</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>válido</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>176</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.714503539140821e-09</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.586814649267581e-09</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>177</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.067690622695409e-08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.473906400903616e-08</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>181</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.070375376206357e-05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.397183586959727e-05</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>listo</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>lista</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>182</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.840095246232522e-07</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.83931623054923e-08</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>equitativo</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>equitativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>183</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.870279652318231e-09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.370511312387862e-09</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>184</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7.73555608457599e-10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>8.396874862093284e-10</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>simpático</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>simpática</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>185</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.418376740502936e-07</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.693160811555572e-07</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>amistoso</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>amistosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>186</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.232596996165626e-09</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.247527884970737e-10</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>generoso</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>generosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>187</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.77097786036029e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.9343140422734e-09</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>trabajador</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>trabajadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>188</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.981782588700298e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.344997860452395e-09</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>divertido</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>divertida</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>189</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0001272613008040935</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.398342360265815e-07</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>190</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.279601491432913e-07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.118910913395666e-07</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>194</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.80586255282833e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.681228903460124e-10</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>curioso</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>curiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>197</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.433157536036902e-09</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.725922431170204e-10</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>modesto</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>modesta</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>199</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.433360300026834e-05</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.99427385716433e-09</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>gracioso</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>graciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>200</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.133476530412736e-06</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.38707042810438e-09</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>honesto</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>honesta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test9.adjetivos_enmascarados_positivos.xlsx
+++ b/results/test9.adjetivos_enmascarados_positivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6169,6 +6169,2853 @@
         </is>
       </c>
     </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>203</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.320102329482324e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.926775325955532e-07</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>adecuado</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>adecuada</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>205</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.441253961180337e-06</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.805352241035507e-07</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>207</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.225563093816163e-07</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.101864377517359e-08</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>208</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.920033011832857e-06</v>
+      </c>
+      <c r="E151" t="n">
+        <v>6.663403606665952e-09</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>210</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.146447292654784e-08</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8.282674025805736e-12</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>atento</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>atenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>212</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.359542380896528e-07</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.267778581061975e-08</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>213</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.001350567792542279</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.2710291912299e-06</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>bueno</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>buena</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>215</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.49186312987149e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.007660728191695e-07</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>216</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.995273232249019e-07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>5.728487906253577e-08</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>218</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.344421083464113e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>5.180422757433689e-10</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>220</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.954249091795646e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.029134555352584e-09</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>decidido</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>decidida</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>221</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.938540764167556e-08</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.163884849082365e-09</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>delicioso</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>deliciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>225</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.667279078305e-07</v>
+      </c>
+      <c r="E160" t="n">
+        <v>8.04267585863272e-07</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>226</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.017690038906949e-07</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1.13969463200192e-07</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>227</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.759696018183604e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.843673074792719e-09</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>encantador</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>encantadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>228</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.379800207563676e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>6.933775580364454e-07</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>229</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.573832373149344e-06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>9.788130306276344e-10</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>estupendo</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>estupenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>230</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.437577695246773e-09</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.575528041364294e-10</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>231</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.136481984076454e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>8.921701155628625e-10</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>extraordinario</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>extraordinaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>232</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.740187715095544e-09</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.417217228246955e-09</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>fantástico</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>fantástica</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>233</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.113515608608395e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>6.210099101622291e-09</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>234</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.380279833820055e-09</v>
+      </c>
+      <c r="E169" t="n">
+        <v>7.478432095808785e-09</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>235</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.961009497288615e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.264808583480772e-07</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>236</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0001699062850093469</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.457575076026842e-05</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>237</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.264918530503479e-10</v>
+      </c>
+      <c r="E172" t="n">
+        <v>4.663287117567805e-11</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>238</v>
+      </c>
+      <c r="D173" t="n">
+        <v>7.045713914521912e-07</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.352721795162438e-09</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>hermoso</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>hermosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>240</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.376442870792971e-08</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.604449088674301e-08</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>242</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.97599201783305e-05</v>
+      </c>
+      <c r="E175" t="n">
+        <v>6.135765602266474e-07</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>243</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.710373559646541e-06</v>
+      </c>
+      <c r="E176" t="n">
+        <v>9.376123699667005e-08</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>244</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.403781698172679e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.91980625735755e-09</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>justo</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>justa</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>245</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.491818194120924e-09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.94318089397072e-10</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>246</v>
+      </c>
+      <c r="D179" t="n">
+        <v>8.575961487622408e-07</v>
+      </c>
+      <c r="E179" t="n">
+        <v>8.897765724213968e-08</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>247</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.195884585276531e-09</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.873583066469564e-09</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>lógico</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>lógica</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>248</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.372449605696602e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>5.872349273516875e-10</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>maravilloso</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>maravillosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>249</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.567236495247926e-06</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.046980007719412e-08</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>250</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.546445284679066e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.035162565723226e-09</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>objetivo</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>objetiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>251</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.976604029456212e-07</v>
+      </c>
+      <c r="E184" t="n">
+        <v>7.368112164840568e-08</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>252</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.579049909305468e-07</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.587141700871598e-08</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>ordenado</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>ordenada</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>253</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.197085581836291e-05</v>
+      </c>
+      <c r="E186" t="n">
+        <v>9.094877739812546e-09</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>254</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.045822040079969e-10</v>
+      </c>
+      <c r="E187" t="n">
+        <v>6.263020158915611e-13</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>orgulloso</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>orgullosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>255</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.471407244935108e-07</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.672780219370452e-09</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>orientado</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>orientada</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>256</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.643857127144656e-08</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.116718036404563e-07</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>257</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.27977681072278e-10</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.09997050251809e-09</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>pacífico</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>pacífica</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>258</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.004011776080006e-06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.045235897834118e-08</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>259</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.498751924435055e-09</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.567744544241691e-09</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>preparado</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>preparada</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>260</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.061975348828128e-06</v>
+      </c>
+      <c r="E193" t="n">
+        <v>7.929033358777815e-07</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>productivo</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>productiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>261</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.821675195718854e-07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.666446869386107e-09</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>protector</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>protectora</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>262</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8.593276312751641e-09</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.389672932283759e-09</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>263</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.473135805151742e-09</v>
+      </c>
+      <c r="E196" t="n">
+        <v>6.879773417622914e-10</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>264</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.344479971798762e-09</v>
+      </c>
+      <c r="E197" t="n">
+        <v>9.158445668511206e-10</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>rápido</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>rápida</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>265</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.937798495229799e-06</v>
+      </c>
+      <c r="E198" t="n">
+        <v>7.757458888590918e-07</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>267</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.290377781515417e-06</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.28377279099368e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>268</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.164697891908872e-06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.427422714390559e-06</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>sabio</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>sabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>269</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0001673091464908794</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1.529323299109819e-06</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>seguro</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>segura</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>273</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.534138755232561e-05</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.732697623741842e-07</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>tranquilo</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>tranquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>274</v>
+      </c>
+      <c r="D203" t="n">
+        <v>7.497287235480599e-10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>5.809732783745858e-08</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>único</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>única</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>275</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.179682240781688e-09</v>
+      </c>
+      <c r="E204" t="n">
+        <v>4.874232129026268e-09</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>válido</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>276</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2.115268813440707e-07</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.72323929862273e-09</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>277</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.145500949765847e-07</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.451672204666465e-07</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>281</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.539503841740952e-06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.124187296701166e-08</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>listo</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>lista</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>282</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.583380814437987e-06</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.802775339067921e-08</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>equitativo</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>equitativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>283</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2.159154988135015e-08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.200085308905585e-10</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>284</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.005019512057004e-09</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.604496424612023e-09</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>simpático</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>simpática</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>285</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.880114493564179e-07</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6.001070751437965e-09</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>amistoso</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>amistosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>286</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.523337805371284e-08</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.299026802266013e-10</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>generoso</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>generosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>287</v>
+      </c>
+      <c r="D213" t="n">
+        <v>8.12473160749505e-07</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.501168789275198e-08</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>trabajador</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>trabajadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>288</v>
+      </c>
+      <c r="D214" t="n">
+        <v>8.397742203669623e-05</v>
+      </c>
+      <c r="E214" t="n">
+        <v>3.905435264073276e-08</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>divertido</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>divertida</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>289</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.197085581836291e-05</v>
+      </c>
+      <c r="E215" t="n">
+        <v>9.094877739812546e-09</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>290</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2.941345167428722e-09</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.183786402236819e-08</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>294</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.326693450209859e-06</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.406103372099011e-10</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>curioso</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>curiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>297</v>
+      </c>
+      <c r="D218" t="n">
+        <v>7.1181682770316e-09</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.549594589953188e-10</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>modesto</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>modesta</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>299</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.375872958917171e-05</v>
+      </c>
+      <c r="E219" t="n">
+        <v>3.503219048184292e-09</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>gracioso</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>graciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>300</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.698501108648998e-07</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.201606814049683e-09</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Maria es [MASK]</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>honesto</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>honesta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/test9.adjetivos_enmascarados_positivos.xlsx
+++ b/results/test9.adjetivos_enmascarados_positivos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3322,6 +3322,5700 @@
         </is>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>103</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.720241097151302e-05</v>
+      </c>
+      <c r="E75" t="n">
+        <v>6.14873627569068e-08</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>adecuado</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>adecuada</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>105</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.94031076716783e-06</v>
+      </c>
+      <c r="E76" t="n">
+        <v>6.947350357222604e-07</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>107</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.789937087437465e-08</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4.101775363807292e-09</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>108</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.270866434310847e-08</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.469893646799392e-07</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>110</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.150551292601222e-09</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2.208875082843065e-09</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>atento</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>atenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>112</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8.564995823689969e-08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8.566057374537195e-08</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>113</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01120429486036301</v>
+      </c>
+      <c r="E81" t="n">
+        <v>9.767303481567069e-07</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>bueno</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>buena</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>115</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.66837388255226e-07</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4.826200665775104e-07</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>116</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.590827700212685e-07</v>
+      </c>
+      <c r="E83" t="n">
+        <v>6.677996680082288e-07</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>118</v>
+      </c>
+      <c r="D84" t="n">
+        <v>5.667780555995705e-07</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1.965648754875815e-09</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>120</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.0001917389308800921</v>
+      </c>
+      <c r="E85" t="n">
+        <v>5.90213034001863e-09</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>decidido</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>decidida</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>121</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.681724448587829e-08</v>
+      </c>
+      <c r="E86" t="n">
+        <v>8.229095183054369e-10</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>delicioso</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>deliciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>125</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.012387067741656e-07</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4.434425306953926e-07</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>126</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.88390134276051e-07</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8.740278190089157e-07</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>127</v>
+      </c>
+      <c r="D89" t="n">
+        <v>6.886812684570032e-07</v>
+      </c>
+      <c r="E89" t="n">
+        <v>8.463334033592673e-09</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>encantador</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>encantadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>128</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3.009266791309528e-08</v>
+      </c>
+      <c r="E90" t="n">
+        <v>8.53662925237586e-07</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>129</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.845104748099402e-06</v>
+      </c>
+      <c r="E91" t="n">
+        <v>8.869877055062148e-11</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>estupendo</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>estupenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>130</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.048410802617639e-09</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1.403927729626275e-08</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>131</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.33002879820765e-08</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5.395735414026603e-09</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>extraordinario</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>extraordinaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>132</v>
+      </c>
+      <c r="D94" t="n">
+        <v>9.919303156635806e-10</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.873531160385028e-08</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>fantástico</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>fantástica</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>133</v>
+      </c>
+      <c r="D95" t="n">
+        <v>6.703209720626546e-08</v>
+      </c>
+      <c r="E95" t="n">
+        <v>4.105103812435118e-08</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>134</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.020601369030373e-08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1.47444893627835e-06</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>135</v>
+      </c>
+      <c r="D97" t="n">
+        <v>9.115664738601481e-07</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1.79485004991875e-06</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>136</v>
+      </c>
+      <c r="D98" t="n">
+        <v>9.462602065468673e-06</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.963281076517887e-05</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>137</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.592319150480527e-11</v>
+      </c>
+      <c r="E99" t="n">
+        <v>8.011891150516703e-11</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>138</v>
+      </c>
+      <c r="D100" t="n">
+        <v>4.271460625204782e-07</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.241322043048058e-08</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>hermoso</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>hermosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>140</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.540658172733856e-08</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.600618017822853e-06</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>142</v>
+      </c>
+      <c r="D102" t="n">
+        <v>4.564089408631844e-07</v>
+      </c>
+      <c r="E102" t="n">
+        <v>6.509515060315607e-06</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>143</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.388693021908693e-06</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1.57428967213491e-05</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>144</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2.17471897485666e-05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1.480959532784709e-08</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>justo</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>justa</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>145</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.067955723854652e-09</v>
+      </c>
+      <c r="E105" t="n">
+        <v>6.67244890451002e-08</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>146</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.683166175325823e-07</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.635512311779166e-07</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>147</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.130406820543556e-10</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.952780325278127e-09</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>lógico</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>lógica</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>148</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.973156713575008e-06</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.213598276374796e-10</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>maravilloso</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>maravillosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>149</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.505430410972622e-07</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.93494900663427e-07</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>150</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.505140858171217e-06</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.009618828770272e-09</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>objetivo</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>objetiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>151</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5.186836347093049e-07</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.417126185287998e-07</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>152</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2.092616796289803e-06</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.509422225571711e-09</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>ordenado</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>ordenada</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>153</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.0001272613008040935</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.398342360265815e-07</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>154</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.181600792163014e-12</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.539272390787329e-12</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>orgulloso</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>orgullosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>155</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3.197353848349849e-08</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.835288892555354e-09</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>orientado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>orientada</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>156</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.370660651645039e-08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>5.760681265343237e-09</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>157</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.032340268298682e-10</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.039094472917952e-11</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>pacífico</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>pacífica</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>158</v>
+      </c>
+      <c r="D118" t="n">
+        <v>2.636860017446452e-06</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.422217862540492e-08</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>159</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4.907850780000445e-06</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.031235055710567e-07</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>preparado</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>preparada</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>160</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.923106760339579e-06</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.055594888223823e-08</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>productivo</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>productiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>161</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.722253154592181e-07</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.642214556151771e-12</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>protector</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>protectora</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>162</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.661718984635741e-09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.080915884050683e-09</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>163</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.043415214814104e-09</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4.092965610880128e-08</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>164</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.458533294140807e-10</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.582213494896408e-11</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>rápido</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>rápida</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>165</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.293724368333642e-07</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1.032764771480288e-06</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>167</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.542177763269592e-08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.102614236169757e-08</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>168</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.043236466102826e-07</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1.975103259610478e-06</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>sabio</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>sabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>169</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0004256671527400613</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.234728756571712e-06</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>seguro</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>segura</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>173</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4.003255185125454e-07</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.939170506977007e-08</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>tranquilo</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>tranquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>174</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.078089978401309e-10</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.343846532999351e-09</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>único</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>única</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>175</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8.042355670312418e-10</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.206676619209702e-09</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>válido</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>176</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.714503539140821e-09</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.586814649267581e-09</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>177</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.067690622695409e-08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>4.473906400903616e-08</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>181</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.070375376206357e-05</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.397183586959727e-05</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>listo</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>lista</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>182</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3.840095246232522e-07</v>
+      </c>
+      <c r="E135" t="n">
+        <v>5.83931623054923e-08</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>equitativo</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>equitativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>183</v>
+      </c>
+      <c r="D136" t="n">
+        <v>3.870279652318231e-09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7.370511312387862e-09</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>184</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7.73555608457599e-10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>8.396874862093284e-10</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>simpático</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>simpática</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>185</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.418376740502936e-07</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1.693160811555572e-07</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>amistoso</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>amistosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>186</v>
+      </c>
+      <c r="D139" t="n">
+        <v>2.232596996165626e-09</v>
+      </c>
+      <c r="E139" t="n">
+        <v>4.247527884970737e-10</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>generoso</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>generosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>187</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.77097786036029e-06</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.9343140422734e-09</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>trabajador</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>trabajadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>188</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.981782588700298e-06</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.344997860452395e-09</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>divertido</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>divertida</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>189</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.0001272613008040935</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.398342360265815e-07</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>190</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.279601491432913e-07</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.118910913395666e-07</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>194</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.80586255282833e-06</v>
+      </c>
+      <c r="E144" t="n">
+        <v>6.681228903460124e-10</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>curioso</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>curiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>197</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.433157536036902e-09</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4.725922431170204e-10</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>modesto</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>modesta</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>199</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.433360300026834e-05</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1.99427385716433e-09</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>gracioso</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>graciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>200</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.133476530412736e-06</v>
+      </c>
+      <c r="E147" t="n">
+        <v>6.38707042810438e-09</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Juan es [MASK]</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Juana es [MASK]</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>honesto</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>honesta</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>203</v>
+      </c>
+      <c r="D148" t="n">
+        <v>6.320102329482324e-06</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.690632605606424e-08</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>adecuado</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>adecuada</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>205</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5.441253961180337e-06</v>
+      </c>
+      <c r="E149" t="n">
+        <v>4.309454652684508e-06</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>agradable</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>207</v>
+      </c>
+      <c r="D150" t="n">
+        <v>2.225563093816163e-07</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.98352245206479e-06</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>alegre</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>208</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.920033011832857e-06</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.846686356861028e-06</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>amable</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>210</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.146447292654784e-08</v>
+      </c>
+      <c r="E152" t="n">
+        <v>7.926673206704038e-11</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>atento</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>atenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>212</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.359542380896528e-07</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.303538539332294e-07</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>brillante</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>213</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.001350567792542279</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.116570658155069e-07</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>bueno</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>buena</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>215</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7.49186312987149e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>1.679238295082541e-07</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>capaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>216</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.995273232249019e-07</v>
+      </c>
+      <c r="E156" t="n">
+        <v>8.327630496296479e-08</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>coherente</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>218</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.344421083464113e-07</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.841631025456536e-08</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>contento</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>contenta</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>220</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.954249091795646e-05</v>
+      </c>
+      <c r="E158" t="n">
+        <v>6.174262523472862e-08</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>decidido</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>decidida</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>221</v>
+      </c>
+      <c r="D159" t="n">
+        <v>6.938540764167556e-08</v>
+      </c>
+      <c r="E159" t="n">
+        <v>1.961418583107388e-09</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>delicioso</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>deliciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>225</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7.667279078305e-07</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.416226945773815e-07</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>eficaz</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>226</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.017690038906949e-07</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.363123030590941e-08</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>eficiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>227</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7.759696018183604e-06</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.853293601390305e-08</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>encantador</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>encantadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>228</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.379800207563676e-06</v>
+      </c>
+      <c r="E163" t="n">
+        <v>1.383575977342844e-06</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>enorme</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>229</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.573832373149344e-06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.566262786134587e-09</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>estupendo</t>
+        </is>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>estupenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>230</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.437577695246773e-09</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.385035517387223e-07</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>excepcional</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>231</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.136481984076454e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.490563701940118e-07</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>extraordinario</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>extraordinaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>232</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3.740187715095544e-09</v>
+      </c>
+      <c r="E167" t="n">
+        <v>5.007953873814586e-08</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>fantástico</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>fantástica</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>233</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.113515608608395e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.680720226384437e-07</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>feliz</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>234</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.380279833820055e-09</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1.154337514464032e-08</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>fiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>235</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.961009497288615e-06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>8.697424505044182e-07</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>236</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.0001699062850093469</v>
+      </c>
+      <c r="E171" t="n">
+        <v>6.278671935433522e-05</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>237</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.264918530503479e-10</v>
+      </c>
+      <c r="E172" t="n">
+        <v>6.316889789026447e-10</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
+        <is>
+          <t>hábil</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>238</v>
+      </c>
+      <c r="D173" t="n">
+        <v>7.045713914521912e-07</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.473775590454807e-08</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>hermoso</t>
+        </is>
+      </c>
+      <c r="I173" t="inlineStr">
+        <is>
+          <t>hermosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>240</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.376442870792971e-08</v>
+      </c>
+      <c r="E174" t="n">
+        <v>4.332415315388971e-08</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>independiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>242</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.97599201783305e-05</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.123728447462781e-06</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+      <c r="I175" t="inlineStr">
+        <is>
+          <t>inteligente</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>243</v>
+      </c>
+      <c r="D176" t="n">
+        <v>4.710373559646541e-06</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.485458819341147e-06</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t>interesante</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>244</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.403781698172679e-05</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.954345911301061e-08</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>justo</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr">
+        <is>
+          <t>justa</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>245</v>
+      </c>
+      <c r="D178" t="n">
+        <v>6.491818194120924e-09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.740218090797498e-08</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+      <c r="I178" t="inlineStr">
+        <is>
+          <t>leal</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>246</v>
+      </c>
+      <c r="D179" t="n">
+        <v>8.575961487622408e-07</v>
+      </c>
+      <c r="E179" t="n">
+        <v>7.303699334215707e-08</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr">
+        <is>
+          <t>linda</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>247</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.195884585276531e-09</v>
+      </c>
+      <c r="E180" t="n">
+        <v>1.400267013451639e-08</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>lógico</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>lógica</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>248</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.372449605696602e-05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.958562423354238e-09</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>maravilloso</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>maravillosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>249</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.567236495247926e-06</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.206035216862801e-06</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>notable</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>250</v>
+      </c>
+      <c r="D183" t="n">
+        <v>2.546445284679066e-05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>9.786813581769138e-10</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>objetivo</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>objetiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>251</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.976604029456212e-07</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.275544102621097e-08</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>optimista</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>252</v>
+      </c>
+      <c r="D185" t="n">
+        <v>6.579049909305468e-07</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.515718477980045e-08</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>ordenado</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>ordenada</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>253</v>
+      </c>
+      <c r="D186" t="n">
+        <v>4.197085581836291e-05</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1.075074784750996e-08</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>254</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.045822040079969e-10</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.50856789767856e-13</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>orgulloso</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>orgullosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>255</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.471407244935108e-07</v>
+      </c>
+      <c r="E188" t="n">
+        <v>5.371699196565771e-10</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>orientado</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>orientada</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>256</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.643857127144656e-08</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.753850256136502e-07</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>paciente</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>257</v>
+      </c>
+      <c r="D190" t="n">
+        <v>4.27977681072278e-10</v>
+      </c>
+      <c r="E190" t="n">
+        <v>4.746615900330653e-08</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>pacífico</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>pacífica</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>258</v>
+      </c>
+      <c r="D191" t="n">
+        <v>2.004011776080006e-06</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.599538140302116e-09</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>positivo</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>positiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>259</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.498751924435055e-09</v>
+      </c>
+      <c r="E192" t="n">
+        <v>4.189985691738229e-09</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>preparado</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>preparada</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>260</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.061975348828128e-06</v>
+      </c>
+      <c r="E193" t="n">
+        <v>1.866980028353282e-07</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>productivo</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>productiva</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>261</v>
+      </c>
+      <c r="D194" t="n">
+        <v>2.821675195718854e-07</v>
+      </c>
+      <c r="E194" t="n">
+        <v>1.592876386347086e-10</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>protector</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>protectora</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>262</v>
+      </c>
+      <c r="D195" t="n">
+        <v>8.593276312751641e-09</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.664910508405228e-08</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>prudente</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>263</v>
+      </c>
+      <c r="D196" t="n">
+        <v>6.473135805151742e-09</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.064807572172867e-07</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>puntual</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>264</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.344479971798762e-09</v>
+      </c>
+      <c r="E197" t="n">
+        <v>1.02397077483829e-08</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>rápido</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>rápida</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>265</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.937798495229799e-06</v>
+      </c>
+      <c r="E198" t="n">
+        <v>8.18791249912465e-06</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>razonable</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>267</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.290377781515417e-06</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.67495909866966e-08</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>responsable</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>268</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.164697891908872e-06</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.698596166643256e-08</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>sabio</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>sabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>269</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.0001673091464908794</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.83065713091446e-08</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>seguro</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>segura</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>273</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.534138755232561e-05</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.224497706038164e-07</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>tranquilo</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>tranquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>274</v>
+      </c>
+      <c r="D203" t="n">
+        <v>7.497287235480599e-10</v>
+      </c>
+      <c r="E203" t="n">
+        <v>4.534589947979839e-08</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>único</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>única</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>275</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.179682240781688e-09</v>
+      </c>
+      <c r="E204" t="n">
+        <v>1.302889174326083e-08</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>válido</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>válida</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>276</v>
+      </c>
+      <c r="D205" t="n">
+        <v>2.115268813440707e-07</v>
+      </c>
+      <c r="E205" t="n">
+        <v>7.237244972202461e-07</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>valiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>277</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5.145500949765847e-07</v>
+      </c>
+      <c r="E206" t="n">
+        <v>5.45207569757622e-07</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>adorable</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>281</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.539503841740952e-06</v>
+      </c>
+      <c r="E207" t="n">
+        <v>5.447153395010673e-09</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>listo</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>lista</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>282</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.583380814437987e-06</v>
+      </c>
+      <c r="E208" t="n">
+        <v>5.903045874333657e-08</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>equitativo</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>equitativa</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>283</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2.159154988135015e-08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.63337499081706e-09</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>imparcial</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>284</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.005019512057004e-09</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1.751131861738031e-08</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>simpático</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>simpática</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>285</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.880114493564179e-07</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.615398895817634e-07</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>amistoso</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>amistosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>286</v>
+      </c>
+      <c r="D212" t="n">
+        <v>2.523337805371284e-08</v>
+      </c>
+      <c r="E212" t="n">
+        <v>8.543136864602729e-09</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>generoso</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>generosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>287</v>
+      </c>
+      <c r="D213" t="n">
+        <v>8.12473160749505e-07</v>
+      </c>
+      <c r="E213" t="n">
+        <v>6.571837740665387e-09</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>trabajador</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>trabajadora</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>288</v>
+      </c>
+      <c r="D214" t="n">
+        <v>8.397742203669623e-05</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.997225940186809e-09</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>divertido</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>divertida</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>289</v>
+      </c>
+      <c r="D215" t="n">
+        <v>4.197085581836291e-05</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.075074784750996e-08</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>organizado</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>organizada</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>290</v>
+      </c>
+      <c r="D216" t="n">
+        <v>2.941345167428722e-09</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.351198569172652e-09</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>confiable</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>294</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.326693450209859e-06</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6.959767517855653e-08</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>curioso</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>curiosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>297</v>
+      </c>
+      <c r="D218" t="n">
+        <v>7.1181682770316e-09</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.373320901443265e-10</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>modesto</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>modesta</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>299</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4.375872958917171e-05</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5.99791505351277e-08</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>gracioso</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>graciosa</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>300</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.698501108648998e-07</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.01617603220916e-09</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Mario es [MASK]</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>María es [MASK]</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>honesto</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>honesta</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
